--- a/trait_stressor_rankings/trait_stressor_adcap_specific_bsh.xlsx
+++ b/trait_stressor_rankings/trait_stressor_adcap_specific_bsh.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1155" windowWidth="21840" windowHeight="13740" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="2920" yWindow="1160" windowWidth="23980" windowHeight="14860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="biomass removal" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="adcap_traits_1" localSheetId="3">'plastic pollution'!$A$1:$C$27</definedName>
     <definedName name="adcap_traits_1" localSheetId="4">'poisons + toxins'!$A$1:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="72">
   <si>
     <t>no</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>assumed to be possible at any depth or zone, so scored all as one</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -757,18 +763,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -788,7 +794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -806,7 +812,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -822,7 +828,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -838,7 +844,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -854,7 +860,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -870,7 +876,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -886,7 +892,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -902,7 +908,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -920,7 +926,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -936,7 +942,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -952,7 +958,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -968,7 +974,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -984,7 +990,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1006,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1016,7 +1022,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,7 +1040,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1056,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1072,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1088,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1104,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1122,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +1138,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1148,7 +1154,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1170,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1186,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1202,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -1215,6 +1221,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1222,18 +1233,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -1253,7 +1264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1282,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1298,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1303,7 +1314,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1328,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -1331,7 +1342,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1356,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1359,7 +1370,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1377,7 +1388,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1393,7 +1404,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1409,7 +1420,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -1425,7 +1436,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1441,7 +1452,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1457,7 +1468,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1473,7 +1484,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1502,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1507,7 +1518,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -1523,7 +1534,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1541,7 +1552,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -1559,7 +1570,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1577,7 +1588,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -1595,7 +1606,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1613,7 +1624,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1640,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1656,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -1663,7 +1674,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -1684,6 +1695,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1695,14 +1711,14 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -1722,7 +1738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1738,7 +1754,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1754,7 +1770,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1770,7 +1786,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -1788,7 +1804,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -1806,7 +1822,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1824,7 +1840,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1840,7 +1856,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1856,7 +1872,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1872,7 +1888,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1888,7 +1904,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -1904,7 +1920,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1920,7 +1936,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1936,7 +1952,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1954,7 +1970,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +1988,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1988,7 +2004,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +2022,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2038,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -2038,7 +2054,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +2070,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -2072,7 +2088,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -2088,7 +2104,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2120,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -2122,7 +2138,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2154,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -2157,6 +2173,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2168,14 +2189,14 @@
       <selection activeCell="D3" sqref="D3:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -2195,7 +2216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -2211,7 +2232,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -2227,7 +2248,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -2245,7 +2266,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -2263,7 +2284,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -2279,7 +2300,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2295,7 +2316,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -2311,7 +2332,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -2329,7 +2350,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2345,7 +2366,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -2361,7 +2382,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -2377,7 +2398,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -2393,7 +2414,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -2409,7 +2430,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -2425,7 +2446,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2443,7 +2464,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,7 +2480,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -2477,7 +2498,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -2493,7 +2514,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -2509,7 +2530,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2525,7 +2546,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -2541,7 +2562,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -2557,7 +2578,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -2573,7 +2594,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -2589,7 +2610,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -2605,7 +2626,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -2636,18 +2657,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -2667,7 +2688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -2685,7 +2706,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -2695,13 +2716,13 @@
       <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8">
-        <v>0.25</v>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -2711,15 +2732,15 @@
       <c r="C4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8">
-        <v>0.1</v>
+      <c r="D4" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -2729,15 +2750,15 @@
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
+      <c r="D5" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -2747,13 +2768,13 @@
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
+      <c r="D6" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2763,13 +2784,13 @@
       <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -2779,13 +2800,13 @@
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
+      <c r="D8" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -2801,7 +2822,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2817,7 +2838,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -2833,7 +2854,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -2849,7 +2870,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -2865,7 +2886,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -2881,7 +2902,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -2897,7 +2918,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2915,7 +2936,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,7 +2952,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -2949,7 +2970,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +2986,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -2981,7 +3002,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2997,7 +3018,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -3013,7 +3034,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -3029,7 +3050,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3066,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -3061,7 +3082,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3077,7 +3098,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>

--- a/trait_stressor_rankings/trait_stressor_adcap_specific_bsh.xlsx
+++ b/trait_stressor_rankings/trait_stressor_adcap_specific_bsh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1160" windowWidth="23980" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="2920" yWindow="1160" windowWidth="23980" windowHeight="14860" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="biomass removal" sheetId="5" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="75">
   <si>
     <t>no</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>assume short PLD means less exposure to poisons and toxins</t>
   </si>
 </sst>
 </file>
@@ -379,8 +388,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -404,13 +417,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -804,8 +821,8 @@
       <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>41</v>
@@ -822,8 +839,8 @@
       <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -838,8 +855,8 @@
       <c r="C4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
+      <c r="D4" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -854,8 +871,8 @@
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
+      <c r="D5" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -870,8 +887,8 @@
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
+      <c r="D6" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -886,8 +903,8 @@
       <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
+      <c r="D7" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -902,8 +919,8 @@
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -918,8 +935,8 @@
       <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
+      <c r="D9" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>42</v>
@@ -936,8 +953,8 @@
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10">
-        <v>0.5</v>
+      <c r="D10" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -952,8 +969,8 @@
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
+      <c r="D11" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -968,8 +985,8 @@
       <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10">
-        <v>1</v>
+      <c r="D12" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -984,8 +1001,8 @@
       <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
+      <c r="D13" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1000,8 +1017,8 @@
       <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="10">
-        <v>1</v>
+      <c r="D14" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1016,8 +1033,8 @@
       <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
+      <c r="D15" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1708,7 +1725,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D9" sqref="D9:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1748,8 +1765,8 @@
       <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1764,8 +1781,8 @@
       <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1780,8 +1797,8 @@
       <c r="C4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8">
-        <v>0.25</v>
+      <c r="D4" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1796,8 +1813,8 @@
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8">
-        <v>0.5</v>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>53</v>
@@ -1814,8 +1831,8 @@
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
+      <c r="D6" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>55</v>
@@ -1832,8 +1849,8 @@
       <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8">
-        <v>0.9</v>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>54</v>
@@ -1850,8 +1867,8 @@
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
+      <c r="D8" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1883,7 +1900,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1899,7 +1916,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1915,7 +1932,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -1931,7 +1948,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1947,7 +1964,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1963,7 +1980,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>56</v>
@@ -2657,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2698,8 +2715,8 @@
       <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>39</v>
@@ -2816,10 +2833,12 @@
       <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6">
@@ -2832,8 +2851,8 @@
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
+      <c r="D10" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2848,8 +2867,8 @@
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
+      <c r="D11" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -2864,8 +2883,8 @@
       <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10">
-        <v>1</v>
+      <c r="D12" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -2880,8 +2899,8 @@
       <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
+      <c r="D13" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2896,8 +2915,8 @@
       <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="10">
-        <v>1</v>
+      <c r="D14" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2912,8 +2931,8 @@
       <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10">
-        <v>1</v>
+      <c r="D15" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
